--- a/task management.xlsx
+++ b/task management.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA9F49B-BF62-4CE3-BF07-34B1DD38EA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E45BDB-6B46-4DFE-BAB4-2FD89F21E251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks list" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -654,8 +654,8 @@
   </sheetPr>
   <dimension ref="A1:J982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
